--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp15-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp15-Bmpr2.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H2">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I2">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J2">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N2">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q2">
-        <v>8.264768526275999</v>
+        <v>15.336246479771</v>
       </c>
       <c r="R2">
-        <v>74.38291673648399</v>
+        <v>138.026218317939</v>
       </c>
       <c r="S2">
-        <v>0.2660050322925981</v>
+        <v>0.2826948443388078</v>
       </c>
       <c r="T2">
-        <v>0.2660050322925981</v>
+        <v>0.2826948443388078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H3">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I3">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J3">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q3">
-        <v>7.465135691497999</v>
+        <v>13.43703501214733</v>
       </c>
       <c r="R3">
-        <v>67.18622122348199</v>
+        <v>120.933315109326</v>
       </c>
       <c r="S3">
-        <v>0.2402685150070757</v>
+        <v>0.2476864548404689</v>
       </c>
       <c r="T3">
-        <v>0.2402685150070758</v>
+        <v>0.2476864548404689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H4">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I4">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J4">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N4">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q4">
-        <v>3.740209228672</v>
+        <v>7.882220390660333</v>
       </c>
       <c r="R4">
-        <v>33.661883058048</v>
+        <v>70.939983515943</v>
       </c>
       <c r="S4">
-        <v>0.1203801986094176</v>
+        <v>0.1452939002591703</v>
       </c>
       <c r="T4">
-        <v>0.1203801986094177</v>
+        <v>0.1452939002591703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H5">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I5">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J5">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N5">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q5">
-        <v>2.979158881047999</v>
+        <v>6.420644685486001</v>
       </c>
       <c r="R5">
-        <v>26.812429929432</v>
+        <v>57.785802169374</v>
       </c>
       <c r="S5">
-        <v>0.0958854748125694</v>
+        <v>0.1183525025052519</v>
       </c>
       <c r="T5">
-        <v>0.0958854748125694</v>
+        <v>0.1183525025052519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H6">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I6">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J6">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N6">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q6">
-        <v>4.339787379609999</v>
+        <v>6.750451187948666</v>
       </c>
       <c r="R6">
-        <v>39.05808641648999</v>
+        <v>60.75406069153799</v>
       </c>
       <c r="S6">
-        <v>0.1396778722097288</v>
+        <v>0.1244318647532824</v>
       </c>
       <c r="T6">
-        <v>0.1396778722097288</v>
+        <v>0.1244318647532824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I7">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J7">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N7">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q7">
-        <v>1.320715911497333</v>
+        <v>1.361545165999667</v>
       </c>
       <c r="R7">
-        <v>11.886443203476</v>
+        <v>12.253906493997</v>
       </c>
       <c r="S7">
-        <v>0.04250779408646008</v>
+        <v>0.02509752300018324</v>
       </c>
       <c r="T7">
-        <v>0.04250779408646008</v>
+        <v>0.02509752300018324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I8">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J8">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>120.711086</v>
       </c>
       <c r="O8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q8">
         <v>1.192934013566444</v>
@@ -948,10 +948,10 @@
         <v>10.736406122098</v>
       </c>
       <c r="S8">
-        <v>0.03839508024850444</v>
+        <v>0.02198949369498336</v>
       </c>
       <c r="T8">
-        <v>0.03839508024850444</v>
+        <v>0.02198949369498336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I9">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J9">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N9">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q9">
-        <v>0.5976881052302222</v>
+        <v>0.6997800331654445</v>
       </c>
       <c r="R9">
-        <v>5.379192947072</v>
+        <v>6.298020298489</v>
       </c>
       <c r="S9">
-        <v>0.01923684168857238</v>
+        <v>0.01289912807596353</v>
       </c>
       <c r="T9">
-        <v>0.01923684168857238</v>
+        <v>0.01289912807596354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I10">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J10">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N10">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q10">
-        <v>0.4760717162942222</v>
+        <v>0.570021989778</v>
       </c>
       <c r="R10">
-        <v>4.284645446648</v>
+        <v>5.130197908002</v>
       </c>
       <c r="S10">
-        <v>0.01532256733674046</v>
+        <v>0.01050728272283189</v>
       </c>
       <c r="T10">
-        <v>0.01532256733674046</v>
+        <v>0.01050728272283189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I11">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J11">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N11">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q11">
-        <v>0.6935011218455555</v>
+        <v>0.5993020649082221</v>
       </c>
       <c r="R11">
-        <v>6.241510096609999</v>
+        <v>5.393718584173999</v>
       </c>
       <c r="S11">
-        <v>0.02232062370833295</v>
+        <v>0.01104700580905672</v>
       </c>
       <c r="T11">
-        <v>0.02232062370833295</v>
+        <v>0.01104700580905672</v>
       </c>
     </row>
   </sheetData>
